--- a/biology/Écologie/Miss_Green/Miss_Green.xlsx
+++ b/biology/Écologie/Miss_Green/Miss_Green.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Miss Green est une série télévisée française en 20 épisodes d'environ 3 minutes créée par Zazon et diffusée du 25 mai au 27 juillet 2008 sur France 4.
 </t>
@@ -511,7 +523,9 @@
           <t>Sypnosis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Terre va mal. Une femme a décidé de prendre sa défense. Elle met sa tenue verte pour sauver la planète. Miss Green.
 À travers des caméras cachées plus loufoques les unes que les autres, sur le réchauffement de la planète et l'écologie, ainsi que des petits gags chez elle, Miss Green est la nouvelle série 100 % biodégradable.
@@ -543,14 +557,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Zazon : Miss Green
-Nader Boussandel : le mari de Miss Green
-Invités
-Cédric Ben Abdallah : Ben (épisode 2)
-Mouloud Achour : Mouloud (épisode 11)
-Mia Frye : Mia Frye (épisode 20)</t>
+Nader Boussandel : le mari de Miss Green</t>
         </is>
       </c>
     </row>
@@ -575,14 +587,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fiche technique</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Créée par Zazon
-Écrite par Zazon et Michaël Lellouche
-Réalisé par Éric Delmotte</t>
+          <t>Invités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cédric Ben Abdallah : Ben (épisode 2)
+Mouloud Achour : Mouloud (épisode 11)
+Mia Frye : Mia Frye (épisode 20)</t>
         </is>
       </c>
     </row>
@@ -607,10 +625,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Créée par Zazon
+Écrite par Zazon et Michaël Lellouche
+Réalisé par Éric Delmotte</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Miss_Green</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Miss_Green</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Éveiller les consciences solidaires
 Mutualiser la mobilité urbaine
